--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Kremen1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Kremen1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H2">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I2">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J2">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.162356</v>
+        <v>7.011769666666666</v>
       </c>
       <c r="N2">
-        <v>15.487068</v>
+        <v>21.035309</v>
       </c>
       <c r="O2">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="P2">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="Q2">
-        <v>1.222767687657333</v>
+        <v>2.417155670907222</v>
       </c>
       <c r="R2">
-        <v>11.004909188916</v>
+        <v>21.754401038165</v>
       </c>
       <c r="S2">
-        <v>0.007637344438761537</v>
+        <v>0.01227228974450504</v>
       </c>
       <c r="T2">
-        <v>0.007637344438761538</v>
+        <v>0.01227228974450503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H3">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I3">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J3">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.962323</v>
       </c>
       <c r="O3">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="P3">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="Q3">
-        <v>2.681465023733444</v>
+        <v>3.902591667972777</v>
       </c>
       <c r="R3">
-        <v>24.133185213601</v>
+        <v>35.12332501175499</v>
       </c>
       <c r="S3">
-        <v>0.01674829339494558</v>
+        <v>0.01981408821959628</v>
       </c>
       <c r="T3">
-        <v>0.01674829339494558</v>
+        <v>0.01981408821959628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H4">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I4">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J4">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.340224333333333</v>
+        <v>2.485142</v>
       </c>
       <c r="N4">
-        <v>7.020673</v>
+        <v>7.455426000000001</v>
       </c>
       <c r="O4">
-        <v>0.06678628319553452</v>
+        <v>0.05902923525229724</v>
       </c>
       <c r="P4">
-        <v>0.06678628319553451</v>
+        <v>0.05902923525229725</v>
       </c>
       <c r="Q4">
-        <v>0.5543109961167778</v>
+        <v>0.8566988597566667</v>
       </c>
       <c r="R4">
-        <v>4.988798965051</v>
+        <v>7.71028973781</v>
       </c>
       <c r="S4">
-        <v>0.003462198131558103</v>
+        <v>0.00434959847942886</v>
       </c>
       <c r="T4">
-        <v>0.003462198131558103</v>
+        <v>0.00434959847942886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H5">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I5">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J5">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.57324333333333</v>
+        <v>19.36045366666667</v>
       </c>
       <c r="N5">
-        <v>40.71973</v>
+        <v>58.081361</v>
       </c>
       <c r="O5">
-        <v>0.3873587930139607</v>
+        <v>0.4598661863510687</v>
       </c>
       <c r="P5">
-        <v>0.3873587930139606</v>
+        <v>0.4598661863510686</v>
       </c>
       <c r="Q5">
-        <v>3.214990086834444</v>
+        <v>6.674096925087222</v>
       </c>
       <c r="R5">
-        <v>28.93491078151</v>
+        <v>60.066872325785</v>
       </c>
       <c r="S5">
-        <v>0.02008066365198186</v>
+        <v>0.03388546804552265</v>
       </c>
       <c r="T5">
-        <v>0.02008066365198186</v>
+        <v>0.03388546804552264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2368623333333333</v>
+        <v>0.3447283333333333</v>
       </c>
       <c r="H6">
-        <v>0.710587</v>
+        <v>1.034185</v>
       </c>
       <c r="I6">
-        <v>0.05183995823545984</v>
+        <v>0.07368549602308437</v>
       </c>
       <c r="J6">
-        <v>0.05183995823545985</v>
+        <v>0.07368549602308436</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.643895666666667</v>
+        <v>1.92205</v>
       </c>
       <c r="N6">
-        <v>7.931687</v>
+        <v>5.76615</v>
       </c>
       <c r="O6">
-        <v>0.07545258042930351</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="P6">
-        <v>0.0754525804293035</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="Q6">
-        <v>0.6262392966965555</v>
+        <v>0.6625850930833332</v>
       </c>
       <c r="R6">
-        <v>5.636153670269</v>
+        <v>5.963265837749999</v>
       </c>
       <c r="S6">
-        <v>0.003911458618212769</v>
+        <v>0.003364051534031552</v>
       </c>
       <c r="T6">
-        <v>0.003911458618212769</v>
+        <v>0.003364051534031552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>12.702779</v>
       </c>
       <c r="I7">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J7">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.162356</v>
+        <v>7.011769666666666</v>
       </c>
       <c r="N7">
-        <v>15.487068</v>
+        <v>21.035309</v>
       </c>
       <c r="O7">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="P7">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="Q7">
-        <v>21.85875579577467</v>
+        <v>29.68965349152344</v>
       </c>
       <c r="R7">
-        <v>196.728802161972</v>
+        <v>267.206881423711</v>
       </c>
       <c r="S7">
-        <v>0.1365286707362601</v>
+        <v>0.1507391660567635</v>
       </c>
       <c r="T7">
-        <v>0.1365286707362601</v>
+        <v>0.1507391660567635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>12.702779</v>
       </c>
       <c r="I8">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J8">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.962323</v>
       </c>
       <c r="O8">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="P8">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="Q8">
         <v>47.93509815506855</v>
@@ -948,10 +948,10 @@
         <v>431.415883395617</v>
       </c>
       <c r="S8">
-        <v>0.2994001714401663</v>
+        <v>0.2433742354994851</v>
       </c>
       <c r="T8">
-        <v>0.2994001714401663</v>
+        <v>0.2433742354994851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>12.702779</v>
       </c>
       <c r="I9">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J9">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.340224333333333</v>
+        <v>2.485142</v>
       </c>
       <c r="N9">
-        <v>7.020673</v>
+        <v>7.455426000000001</v>
       </c>
       <c r="O9">
-        <v>0.06678628319553452</v>
+        <v>0.05902923525229724</v>
       </c>
       <c r="P9">
-        <v>0.06678628319553451</v>
+        <v>0.05902923525229725</v>
       </c>
       <c r="Q9">
-        <v>9.909117505585222</v>
+        <v>10.52273653653933</v>
       </c>
       <c r="R9">
-        <v>89.182057550267</v>
+        <v>94.70462882885401</v>
       </c>
       <c r="S9">
-        <v>0.06189184113893937</v>
+        <v>0.0534256329601772</v>
       </c>
       <c r="T9">
-        <v>0.06189184113893936</v>
+        <v>0.0534256329601772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>12.702779</v>
       </c>
       <c r="I10">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J10">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.57324333333333</v>
+        <v>19.36045366666667</v>
       </c>
       <c r="N10">
-        <v>40.71973</v>
+        <v>58.081361</v>
       </c>
       <c r="O10">
-        <v>0.3873587930139607</v>
+        <v>0.4598661863510687</v>
       </c>
       <c r="P10">
-        <v>0.3873587930139606</v>
+        <v>0.4598661863510686</v>
       </c>
       <c r="Q10">
-        <v>57.47263679218555</v>
+        <v>81.97718808913545</v>
       </c>
       <c r="R10">
-        <v>517.25373112967</v>
+        <v>737.7946928022189</v>
       </c>
       <c r="S10">
-        <v>0.3589711499710218</v>
+        <v>0.416211424352351</v>
       </c>
       <c r="T10">
-        <v>0.3589711499710218</v>
+        <v>0.4162114243523509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>12.702779</v>
       </c>
       <c r="I11">
-        <v>0.9267148608604947</v>
+        <v>0.9050707286284559</v>
       </c>
       <c r="J11">
-        <v>0.9267148608604948</v>
+        <v>0.9050707286284558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.643895666666667</v>
+        <v>1.92205</v>
       </c>
       <c r="N11">
-        <v>7.931687</v>
+        <v>5.76615</v>
       </c>
       <c r="O11">
-        <v>0.07545258042930351</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="P11">
-        <v>0.0754525804293035</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="Q11">
-        <v>11.19494078424144</v>
+        <v>8.138458792316666</v>
       </c>
       <c r="R11">
-        <v>100.754467058173</v>
+        <v>73.24612913084999</v>
       </c>
       <c r="S11">
-        <v>0.06992302757410729</v>
+        <v>0.04132026975967916</v>
       </c>
       <c r="T11">
-        <v>0.06992302757410729</v>
+        <v>0.04132026975967915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H12">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I12">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J12">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.162356</v>
+        <v>7.011769666666666</v>
       </c>
       <c r="N12">
-        <v>15.487068</v>
+        <v>21.035309</v>
       </c>
       <c r="O12">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="P12">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="Q12">
-        <v>0.137721333368</v>
+        <v>0.192977924766</v>
       </c>
       <c r="R12">
-        <v>1.239492000312</v>
+        <v>1.736801322894</v>
       </c>
       <c r="S12">
-        <v>0.0008602004044710093</v>
+        <v>0.0009797800925799571</v>
       </c>
       <c r="T12">
-        <v>0.0008602004044710092</v>
+        <v>0.0009797800925799569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H13">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I13">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J13">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.962323</v>
       </c>
       <c r="O13">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="P13">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="Q13">
-        <v>0.3020156176646667</v>
+        <v>0.311570351202</v>
       </c>
       <c r="R13">
-        <v>2.718140558982</v>
+        <v>2.804133160818</v>
       </c>
       <c r="S13">
-        <v>0.001886374101371225</v>
+        <v>0.001581892995875193</v>
       </c>
       <c r="T13">
-        <v>0.001886374101371225</v>
+        <v>0.001581892995875193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H14">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I14">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J14">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.340224333333333</v>
+        <v>2.485142</v>
       </c>
       <c r="N14">
-        <v>7.020673</v>
+        <v>7.455426000000001</v>
       </c>
       <c r="O14">
-        <v>0.06678628319553452</v>
+        <v>0.05902923525229724</v>
       </c>
       <c r="P14">
-        <v>0.06678628319553451</v>
+        <v>0.05902923525229725</v>
       </c>
       <c r="Q14">
-        <v>0.06243250476466668</v>
+        <v>0.068396078124</v>
       </c>
       <c r="R14">
-        <v>0.5618925428820001</v>
+        <v>0.6155647031160001</v>
       </c>
       <c r="S14">
-        <v>0.0003899502316551264</v>
+        <v>0.0003472579355265483</v>
       </c>
       <c r="T14">
-        <v>0.0003899502316551263</v>
+        <v>0.0003472579355265483</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H15">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I15">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J15">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.57324333333333</v>
+        <v>19.36045366666667</v>
       </c>
       <c r="N15">
-        <v>40.71973</v>
+        <v>58.081361</v>
       </c>
       <c r="O15">
-        <v>0.3873587930139607</v>
+        <v>0.4598661863510687</v>
       </c>
       <c r="P15">
-        <v>0.3873587930139606</v>
+        <v>0.4598661863510686</v>
       </c>
       <c r="Q15">
-        <v>0.3621069856466667</v>
+        <v>0.5328384058140001</v>
       </c>
       <c r="R15">
-        <v>3.25896287082</v>
+        <v>4.795545652326</v>
       </c>
       <c r="S15">
-        <v>0.002261701712419051</v>
+        <v>0.002705306646921608</v>
       </c>
       <c r="T15">
-        <v>0.002261701712419051</v>
+        <v>0.002705306646921608</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.026678</v>
+        <v>0.027522</v>
       </c>
       <c r="H16">
-        <v>0.08003400000000001</v>
+        <v>0.082566</v>
       </c>
       <c r="I16">
-        <v>0.005838777260795362</v>
+        <v>0.005882812712079546</v>
       </c>
       <c r="J16">
-        <v>0.005838777260795363</v>
+        <v>0.005882812712079545</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.643895666666667</v>
+        <v>1.92205</v>
       </c>
       <c r="N16">
-        <v>7.931687</v>
+        <v>5.76615</v>
       </c>
       <c r="O16">
-        <v>0.07545258042930351</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="P16">
-        <v>0.0754525804293035</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="Q16">
-        <v>0.07053384859533335</v>
+        <v>0.05289866009999999</v>
       </c>
       <c r="R16">
-        <v>0.6348046373580001</v>
+        <v>0.4760879409</v>
       </c>
       <c r="S16">
-        <v>0.0004405508108789505</v>
+        <v>0.0002685750411762395</v>
       </c>
       <c r="T16">
-        <v>0.0004405508108789505</v>
+        <v>0.0002685750411762394</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H17">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I17">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J17">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.162356</v>
+        <v>7.011769666666666</v>
       </c>
       <c r="N17">
-        <v>15.487068</v>
+        <v>21.035309</v>
       </c>
       <c r="O17">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="P17">
-        <v>0.1473254357974656</v>
+        <v>0.1665495980465456</v>
       </c>
       <c r="Q17">
-        <v>0.3681138400773333</v>
+        <v>0.5038961525818889</v>
       </c>
       <c r="R17">
-        <v>3.313024560696</v>
+        <v>4.535065373237</v>
       </c>
       <c r="S17">
-        <v>0.002299220217972951</v>
+        <v>0.002558362152697123</v>
       </c>
       <c r="T17">
-        <v>0.002299220217972951</v>
+        <v>0.002558362152697123</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H18">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I18">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J18">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.962323</v>
       </c>
       <c r="O18">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="P18">
-        <v>0.3230769075637357</v>
+        <v>0.2689007917296081</v>
       </c>
       <c r="Q18">
-        <v>0.8072542289784442</v>
+        <v>0.8135599002821111</v>
       </c>
       <c r="R18">
-        <v>7.265288060805998</v>
+        <v>7.322039102539</v>
       </c>
       <c r="S18">
-        <v>0.005042068627252607</v>
+        <v>0.004130575014651557</v>
       </c>
       <c r="T18">
-        <v>0.005042068627252607</v>
+        <v>0.004130575014651557</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H19">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I19">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J19">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.340224333333333</v>
+        <v>2.485142</v>
       </c>
       <c r="N19">
-        <v>7.020673</v>
+        <v>7.455426000000001</v>
       </c>
       <c r="O19">
-        <v>0.06678628319553452</v>
+        <v>0.05902923525229724</v>
       </c>
       <c r="P19">
-        <v>0.06678628319553451</v>
+        <v>0.05902923525229725</v>
       </c>
       <c r="Q19">
-        <v>0.1668751566117778</v>
+        <v>0.1785930730686667</v>
       </c>
       <c r="R19">
-        <v>1.501876409506</v>
+        <v>1.607337657618</v>
       </c>
       <c r="S19">
-        <v>0.001042293693381911</v>
+        <v>0.0009067458771646334</v>
       </c>
       <c r="T19">
-        <v>0.001042293693381911</v>
+        <v>0.0009067458771646335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H20">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I20">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J20">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.57324333333333</v>
+        <v>19.36045366666667</v>
       </c>
       <c r="N20">
-        <v>40.71973</v>
+        <v>58.081361</v>
       </c>
       <c r="O20">
-        <v>0.3873587930139607</v>
+        <v>0.4598661863510687</v>
       </c>
       <c r="P20">
-        <v>0.3873587930139606</v>
+        <v>0.4598661863510686</v>
       </c>
       <c r="Q20">
-        <v>0.9678717867844442</v>
+        <v>1.391326095785889</v>
       </c>
       <c r="R20">
-        <v>8.710846081059998</v>
+        <v>12.521934862073</v>
       </c>
       <c r="S20">
-        <v>0.006045277678537972</v>
+        <v>0.007063987306273408</v>
       </c>
       <c r="T20">
-        <v>0.006045277678537972</v>
+        <v>0.007063987306273408</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.07130733333333332</v>
+        <v>0.07186433333333334</v>
       </c>
       <c r="H21">
-        <v>0.213922</v>
+        <v>0.215593</v>
       </c>
       <c r="I21">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="J21">
-        <v>0.01560640364324993</v>
+        <v>0.01536096263638017</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.643895666666667</v>
+        <v>1.92205</v>
       </c>
       <c r="N21">
-        <v>7.931687</v>
+        <v>5.76615</v>
       </c>
       <c r="O21">
-        <v>0.07545258042930351</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="P21">
-        <v>0.0754525804293035</v>
+        <v>0.0456541886204804</v>
       </c>
       <c r="Q21">
-        <v>0.1885291496015555</v>
+        <v>0.1381268418833333</v>
       </c>
       <c r="R21">
-        <v>1.696762346414</v>
+        <v>1.24314157695</v>
       </c>
       <c r="S21">
-        <v>0.001177543426104491</v>
+        <v>0.0007012922855934524</v>
       </c>
       <c r="T21">
-        <v>0.001177543426104491</v>
+        <v>0.0007012922855934524</v>
       </c>
     </row>
   </sheetData>
